--- a/src/Excel/entregable1/Inputs.xlsx
+++ b/src/Excel/entregable1/Inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BABC290-BFD9-4429-9AB1-73A97EFA4A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB598F1D-51F3-494F-B226-9289F5635E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>CASO</t>
   </si>
@@ -39,6 +39,30 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Alta DPF</t>
+  </si>
+  <si>
+    <t>Cambio Tasa CTS</t>
+  </si>
+  <si>
+    <t>Cambio Tasa Cuenta Ahorro</t>
+  </si>
+  <si>
+    <t>Cancelacion CTS</t>
+  </si>
+  <si>
+    <t>Deposito Efectivo Local Extranjero</t>
+  </si>
+  <si>
+    <t>Deposito Local Efectico</t>
+  </si>
+  <si>
+    <t>Retiro Efectivo Extranjero</t>
+  </si>
+  <si>
+    <t>Retiro Efectivo Sin Tarjeta</t>
   </si>
 </sst>
 </file>
@@ -422,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A91A77-E5B6-4AE4-A13D-A81F28ECF0AB}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,6 +498,70 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/Excel/entregable1/Inputs.xlsx
+++ b/src/Excel/entregable1/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB598F1D-51F3-494F-B226-9289F5635E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50046FBA-1A8B-4925-AC1E-CFE23B2036E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entregable1" sheetId="5" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -503,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">

--- a/src/Excel/entregable1/Inputs.xlsx
+++ b/src/Excel/entregable1/Inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50046FBA-1A8B-4925-AC1E-CFE23B2036E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D1F18B-1064-49E4-AFD1-A3C8A39071DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>CASO</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Retiro Efectivo Sin Tarjeta</t>
+  </si>
+  <si>
+    <t>InactividadManualCuentaAhorros</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A91A77-E5B6-4AE4-A13D-A81F28ECF0AB}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,6 +565,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
